--- a/03.개발/단위테스트 시나리오 명세서-박정미.xlsx
+++ b/03.개발/단위테스트 시나리오 명세서-박정미.xlsx
@@ -11,12 +11,12 @@
     <sheet name="정량적,정석적분석" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="111">
   <si>
     <t>순번</t>
   </si>
@@ -339,13 +339,28 @@
   </si>
   <si>
     <t>사용자가 정상적으로 회원가입을 완료할 경우 관리자의 메인화면에 회원가입에 대한 로그를 출력한다.</t>
+  </si>
+  <si>
+    <t>LogTestSignUp</t>
+  </si>
+  <si>
+    <t>LogTestSignUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 회원가입을 완료한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 회원가입을 완료할 경우 관리자의 로그창에 회원가입 완료 로그를 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +439,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -438,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -596,6 +619,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -608,7 +646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,6 +734,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,6 +786,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -720,62 +815,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1138,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1157,63 +1207,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="47"/>
       <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" spans="1:11" ht="20.25" customHeight="1">
       <c r="A4" s="8"/>
@@ -1267,7 +1317,7 @@
       <c r="A6" s="14">
         <v>1</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -1296,7 +1346,7 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="21" t="s">
         <v>38</v>
       </c>
@@ -1323,7 +1373,7 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="14" t="s">
         <v>39</v>
       </c>
@@ -1350,7 +1400,7 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="14" t="s">
         <v>40</v>
       </c>
@@ -1377,7 +1427,7 @@
       <c r="A10" s="14">
         <v>5</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -1406,7 +1456,7 @@
       <c r="A11" s="14">
         <v>6</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="14" t="s">
         <v>86</v>
       </c>
@@ -1433,7 +1483,7 @@
       <c r="A12" s="14">
         <v>7</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="21" t="s">
         <v>94</v>
       </c>
@@ -1460,7 +1510,7 @@
       <c r="A13" s="14">
         <v>8</v>
       </c>
-      <c r="B13" s="46"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="21" t="s">
         <v>97</v>
       </c>
@@ -1485,7 +1535,7 @@
       <c r="A14" s="14">
         <v>9</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="21" t="s">
         <v>100</v>
       </c>
@@ -1510,7 +1560,7 @@
       <c r="A15" s="14">
         <v>10</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="21" t="s">
         <v>102</v>
       </c>
@@ -1535,7 +1585,7 @@
       <c r="A16" s="14">
         <v>11</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="14" t="s">
         <v>89</v>
       </c>
@@ -1562,7 +1612,7 @@
       <c r="A17" s="14">
         <v>12</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="14" t="s">
         <v>104</v>
       </c>
@@ -1618,7 +1668,7 @@
       <c r="A19" s="14">
         <v>14</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -1649,7 +1699,7 @@
       <c r="A20" s="14">
         <v>15</v>
       </c>
-      <c r="B20" s="46"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="14" t="s">
         <v>30</v>
       </c>
@@ -1680,7 +1730,7 @@
       <c r="A21" s="14">
         <v>16</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="14" t="s">
         <v>52</v>
       </c>
@@ -1711,7 +1761,7 @@
       <c r="A22" s="14">
         <v>17</v>
       </c>
-      <c r="B22" s="46"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="14" t="s">
         <v>56</v>
       </c>
@@ -1740,7 +1790,7 @@
       <c r="A23" s="14">
         <v>18</v>
       </c>
-      <c r="B23" s="46"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="14" t="s">
         <v>60</v>
       </c>
@@ -1771,7 +1821,7 @@
       <c r="A24" s="14">
         <v>19</v>
       </c>
-      <c r="B24" s="46"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="14" t="s">
         <v>62</v>
       </c>
@@ -1802,7 +1852,7 @@
       <c r="A25" s="14">
         <v>20</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="21" t="s">
         <v>71</v>
       </c>
@@ -1833,7 +1883,7 @@
       <c r="A26" s="14">
         <v>21</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="14" t="s">
         <v>66</v>
       </c>
@@ -1864,7 +1914,7 @@
       <c r="A27" s="14">
         <v>22</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="14" t="s">
         <v>67</v>
       </c>
@@ -1892,26 +1942,36 @@
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A28" s="14">
+      <c r="A28" s="23">
         <v>23</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>108</v>
+      </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
+      <c r="F28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A29" s="16">
+      <c r="A29" s="24">
         <v>24</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -1922,11 +1982,11 @@
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A30" s="20">
+      <c r="A30" s="25">
         <v>25</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -1940,7 +2000,7 @@
       <c r="A31" s="14">
         <v>26</v>
       </c>
-      <c r="B31" s="45"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -1955,7 +2015,7 @@
       <c r="A32" s="14">
         <v>27</v>
       </c>
-      <c r="B32" s="46"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -1970,7 +2030,7 @@
       <c r="A33" s="14">
         <v>28</v>
       </c>
-      <c r="B33" s="49"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
@@ -1985,7 +2045,7 @@
       <c r="A34" s="14">
         <v>29</v>
       </c>
-      <c r="B34" s="50"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -2000,7 +2060,7 @@
       <c r="A35" s="14">
         <v>30</v>
       </c>
-      <c r="B35" s="50"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
@@ -2015,7 +2075,7 @@
       <c r="A36" s="14">
         <v>31</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -2030,7 +2090,7 @@
       <c r="A37" s="14">
         <v>32</v>
       </c>
-      <c r="B37" s="50"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -2045,7 +2105,7 @@
       <c r="A38" s="14">
         <v>33</v>
       </c>
-      <c r="B38" s="50"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -2060,7 +2120,7 @@
       <c r="A39" s="14">
         <v>34</v>
       </c>
-      <c r="B39" s="50"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -2075,7 +2135,7 @@
       <c r="A40" s="16">
         <v>35</v>
       </c>
-      <c r="B40" s="50"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
@@ -2090,7 +2150,7 @@
       <c r="A41" s="20">
         <v>36</v>
       </c>
-      <c r="B41" s="50"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -2105,7 +2165,7 @@
       <c r="A42" s="14">
         <v>37</v>
       </c>
-      <c r="B42" s="51"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -2120,7 +2180,7 @@
       <c r="A43" s="14">
         <v>38</v>
       </c>
-      <c r="B43" s="52"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -2135,7 +2195,7 @@
       <c r="A44" s="14">
         <v>39</v>
       </c>
-      <c r="B44" s="53"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -2150,7 +2210,7 @@
       <c r="A45" s="14">
         <v>40</v>
       </c>
-      <c r="B45" s="46"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
@@ -2165,7 +2225,7 @@
       <c r="A46" s="14">
         <v>41</v>
       </c>
-      <c r="B46" s="46"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
@@ -2180,7 +2240,7 @@
       <c r="A47" s="14">
         <v>42</v>
       </c>
-      <c r="B47" s="46"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="14"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
@@ -2195,7 +2255,7 @@
       <c r="A48" s="14">
         <v>43</v>
       </c>
-      <c r="B48" s="47"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="14"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
@@ -2210,7 +2270,7 @@
       <c r="A49" s="16">
         <v>44</v>
       </c>
-      <c r="B49" s="45"/>
+      <c r="B49" s="35"/>
       <c r="C49" s="14"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
@@ -2225,7 +2285,7 @@
       <c r="A50" s="20">
         <v>45</v>
       </c>
-      <c r="B50" s="47"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="14"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
@@ -2285,7 +2345,7 @@
       <c r="A54" s="14">
         <v>49</v>
       </c>
-      <c r="B54" s="54"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
@@ -2300,7 +2360,7 @@
       <c r="A55" s="14">
         <v>50</v>
       </c>
-      <c r="B55" s="54"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
@@ -2315,7 +2375,7 @@
       <c r="A56" s="14">
         <v>51</v>
       </c>
-      <c r="B56" s="54"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
@@ -2330,7 +2390,7 @@
       <c r="A57" s="14">
         <v>52</v>
       </c>
-      <c r="B57" s="55"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
@@ -2345,7 +2405,7 @@
       <c r="A58" s="14">
         <v>53</v>
       </c>
-      <c r="B58" s="42"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
@@ -2360,7 +2420,7 @@
       <c r="A59" s="14">
         <v>54</v>
       </c>
-      <c r="B59" s="43"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
@@ -2375,7 +2435,7 @@
       <c r="A60" s="14">
         <v>55</v>
       </c>
-      <c r="B60" s="43"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
@@ -2390,7 +2450,7 @@
       <c r="A61" s="14">
         <v>56</v>
       </c>
-      <c r="B61" s="43"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
@@ -2405,7 +2465,7 @@
       <c r="A62" s="14">
         <v>57</v>
       </c>
-      <c r="B62" s="43"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
@@ -2420,7 +2480,7 @@
       <c r="A63" s="14">
         <v>58</v>
       </c>
-      <c r="B63" s="43"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
@@ -2435,7 +2495,7 @@
       <c r="A64" s="14">
         <v>59</v>
       </c>
-      <c r="B64" s="43"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
@@ -2450,7 +2510,7 @@
       <c r="A65" s="14">
         <v>60</v>
       </c>
-      <c r="B65" s="43"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
@@ -2465,7 +2525,7 @@
       <c r="A66" s="14">
         <v>61</v>
       </c>
-      <c r="B66" s="43"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
@@ -2480,7 +2540,7 @@
       <c r="A67" s="14">
         <v>62</v>
       </c>
-      <c r="B67" s="43"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
@@ -2495,7 +2555,7 @@
       <c r="A68" s="14">
         <v>63</v>
       </c>
-      <c r="B68" s="44"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
@@ -2510,7 +2570,7 @@
       <c r="A69" s="14">
         <v>64</v>
       </c>
-      <c r="B69" s="42"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
@@ -2525,7 +2585,7 @@
       <c r="A70" s="14">
         <v>65</v>
       </c>
-      <c r="B70" s="43"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
@@ -2540,7 +2600,7 @@
       <c r="A71" s="14">
         <v>66</v>
       </c>
-      <c r="B71" s="43"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
@@ -2555,7 +2615,7 @@
       <c r="A72" s="14">
         <v>67</v>
       </c>
-      <c r="B72" s="43"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
@@ -2570,7 +2630,7 @@
       <c r="A73" s="14">
         <v>68</v>
       </c>
-      <c r="B73" s="43"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
@@ -2585,7 +2645,7 @@
       <c r="A74" s="14">
         <v>69</v>
       </c>
-      <c r="B74" s="43"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
@@ -2600,7 +2660,7 @@
       <c r="A75" s="14">
         <v>70</v>
       </c>
-      <c r="B75" s="43"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
@@ -2615,7 +2675,7 @@
       <c r="A76" s="14">
         <v>71</v>
       </c>
-      <c r="B76" s="44"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
@@ -2630,7 +2690,7 @@
       <c r="A77" s="14">
         <v>72</v>
       </c>
-      <c r="B77" s="42"/>
+      <c r="B77" s="30"/>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
@@ -2645,7 +2705,7 @@
       <c r="A78" s="14">
         <v>73</v>
       </c>
-      <c r="B78" s="43"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
@@ -2660,7 +2720,7 @@
       <c r="A79" s="14">
         <v>74</v>
       </c>
-      <c r="B79" s="43"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
@@ -2673,7 +2733,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="18"/>
-      <c r="B80" s="43"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
@@ -2686,7 +2746,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="18"/>
-      <c r="B81" s="43"/>
+      <c r="B81" s="31"/>
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
@@ -2699,7 +2759,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="18"/>
-      <c r="B82" s="43"/>
+      <c r="B82" s="31"/>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
@@ -2712,7 +2772,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="18"/>
-      <c r="B83" s="44"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
@@ -2734,29 +2794,28 @@
       <c r="J84" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B19:B27"/>
     <mergeCell ref="B77:B83"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B54:B57"/>
     <mergeCell ref="B58:B68"/>
     <mergeCell ref="B69:B76"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
